--- a/scriptspy/data/healing_perks.xlsx
+++ b/scriptspy/data/healing_perks.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\BattleBay_tool\scriptspy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F03BE2-9481-44E6-88C2-EBF727634602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417E751D-7770-4B41-BC6E-B848488FFA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17ED7760-9FD3-4054-A926-911402D2CD26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17ED7760-9FD3-4054-A926-911402D2CD26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
   <si>
     <t>Item</t>
   </si>
@@ -124,6 +124,33 @@
   </si>
   <si>
     <t>"Speedy"_Repairing_Cooldown</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>10% RANGE</t>
+  </si>
+  <si>
+    <t>2.5% HEALING</t>
+  </si>
+  <si>
+    <t>5% HEALING</t>
+  </si>
+  <si>
+    <t>2,5% COOL_DOWN</t>
+  </si>
+  <si>
+    <t>3% COOL_DOWN</t>
+  </si>
+  <si>
+    <t>10% INVULNERABILITY</t>
   </si>
 </sst>
 </file>
@@ -152,7 +179,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,13 +194,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,19 +301,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9966FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -272,6 +334,197 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>550545</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>20956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2900DEF2-74E0-421C-9275-6E34F9A1B0D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8492490" y="190500"/>
+          <a:ext cx="7250430" cy="4021456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>READ FIRST</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>The goal of this drive and excel is to have an up to date list of all the perks in all possible rarities. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Here the legendaries have the right values and thus are colored in light green.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>The goal is for you to go around your stuff and check if your perks are already updated. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>If they are not updated here, they will not be colored (in the excel) and then you have the oportunity to either dm me on discord with a screeshot of the perk's infos so I change it my self (@komiko44240 on the official battle bay discord sever), or change it yourself (if I can figure out a way to let google drive alow you to do that)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>And please if you change any value that was not modified already, color it with the right (or as close as possible) color (R: 226 G:239 B:218 or hex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: #e2efda</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>If  the perk that you have is not part of this list, please dm me directly on discord (@komiko44240 on the official battle bay discord sever) without modifying</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> any thing here.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Note : If</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> any modification apported to this spread sheet is childish you will be banned from accesing this divre</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,10 +824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}">
-  <dimension ref="A1:E9"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,17 +857,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -621,126 +875,546 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F9" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}"/>
+  <autoFilter ref="A1:E33" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Repair_Bolt"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="&quot;Cover&quot;_Repair_Bolt_Speed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/scriptspy/data/healing_perks.xlsx
+++ b/scriptspy/data/healing_perks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\BattleBay_tool\scriptspy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\scriptspy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417E751D-7770-4B41-BC6E-B848488FFA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D74390-DE83-4429-A271-1B3DCAA846C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17ED7760-9FD3-4054-A926-911402D2CD26}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="39">
   <si>
     <t>Item</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>10% INVULNERABILITY</t>
+  </si>
+  <si>
+    <t>2% COOL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -309,8 +312,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -528,9 +531,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -568,7 +571,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -674,7 +677,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -816,7 +819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -824,11 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -891,7 +893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
@@ -908,7 +910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
@@ -925,7 +927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -942,7 +944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -959,7 +961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
@@ -976,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -993,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1078,7 +1080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1095,7 +1097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1112,7 +1114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
@@ -1180,7 +1182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -1214,7 +1216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -1231,7 +1233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
@@ -1265,7 +1267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
@@ -1275,8 +1277,8 @@
       <c r="C26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>7</v>
+      <c r="D26" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>31</v>
@@ -1299,7 +1301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>17</v>
       </c>
@@ -1316,7 +1318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
@@ -1350,7 +1352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>25</v>
       </c>
@@ -1367,7 +1369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
@@ -1402,18 +1404,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E33" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Repair_Bolt"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="&quot;Cover&quot;_Repair_Bolt_Speed"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E33" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/scriptspy/data/healing_perks.xlsx
+++ b/scriptspy/data/healing_perks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\scriptspy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D74390-DE83-4429-A271-1B3DCAA846C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11063E7C-C2A4-4EC4-8BB5-EF7D8C8BA9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17ED7760-9FD3-4054-A926-911402D2CD26}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="42">
   <si>
     <t>Item</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>2% COOL_DOWN</t>
+  </si>
+  <si>
+    <t>5% RANGE</t>
+  </si>
+  <si>
+    <t>8% RANGE</t>
+  </si>
+  <si>
+    <t>5% CRITICAL_HIT_CHANCE</t>
   </si>
 </sst>
 </file>
@@ -827,10 +836,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -876,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -927,7 +937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -944,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -961,7 +971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
@@ -978,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -995,7 +1005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1063,7 +1073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1080,7 +1090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1097,7 +1107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1114,7 +1124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -1175,48 +1185,48 @@
       <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>19</v>
+      <c r="D20" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>5</v>
+      <c r="C21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>5</v>
+      <c r="C22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
@@ -1267,7 +1277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +1294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
@@ -1319,40 +1329,40 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>5</v>
+      <c r="C29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>5</v>
+      <c r="C30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>25</v>
       </c>
@@ -1369,7 +1379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
@@ -1386,7 +1396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
@@ -1404,7 +1414,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E33" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}"/>
+  <autoFilter ref="A1:E33" xr:uid="{043BCFDB-ACF3-4DBE-A0C0-8C4B7FE8841E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Repair_Box"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
